--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B073FD93-D195-4F4C-A2E5-7C1B05574B56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C847520-4E53-4428-9B2F-468181D1AE5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15410" windowHeight="1570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="5730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
+    <sheet name="3RD PARTY PROVIDER" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:I18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Username</t>
   </si>
@@ -33,6 +34,69 @@
   </si>
   <si>
     <t>sam123@gmail.com</t>
+  </si>
+  <si>
+    <t>Provider Name</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Other Contact Number</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saran </t>
+  </si>
+  <si>
+    <t>Fax Number</t>
+  </si>
+  <si>
+    <t>Vat Number</t>
+  </si>
+  <si>
+    <t>27832GAF*&amp;</t>
+  </si>
+  <si>
+    <t>87378HS&amp;$#</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>97483HSF%#</t>
+  </si>
+  <si>
+    <t>8727GTH&amp;^%</t>
+  </si>
+  <si>
+    <t>saran@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -363,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -404,4 +468,102 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650E07E-7075-45BE-BA25-ACC8F76A0F46}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{815B796C-F77A-414D-ACD5-68C626234956}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C847520-4E53-4428-9B2F-468181D1AE5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{23EFFAF6-082B-46C3-A071-6EA23C595ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="5730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="3RD PARTY PROVIDER" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I18"/>
+  <oleSize ref="A1:K18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Username</t>
   </si>
@@ -48,21 +48,12 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t xml:space="preserve">Saran </t>
-  </si>
-  <si>
     <t>Fax Number</t>
   </si>
   <si>
     <t>Vat Number</t>
   </si>
   <si>
-    <t>27832GAF*&amp;</t>
-  </si>
-  <si>
-    <t>87378HS&amp;$#</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -90,20 +81,38 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>97483HSF%#</t>
-  </si>
-  <si>
-    <t>8727GTH&amp;^%</t>
-  </si>
-  <si>
-    <t>saran@gmail.com</t>
+    <t>Justice Mahomed St &amp; Steve Biko streets, Sunnyside, Pretoria, 0001, South Africa</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Gauteng</t>
+  </si>
+  <si>
+    <t>This is to create sample provider</t>
+  </si>
+  <si>
+    <t>959 Arcadia Street Hatfield, Pretoria, 0001, South Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +127,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF19344E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,9 +156,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -428,7 +451,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,96 +495,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650E07E-7075-45BE-BA25-ACC8F76A0F46}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="8.7265625" style="3"/>
+    <col min="13" max="13" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9984738816</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8972736635</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>7782937352</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9973263547</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1111</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{815B796C-F77A-414D-ACD5-68C626234956}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A829F1DA-5966-4FF1-BD94-CE57DEA3D97E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{23EFFAF6-082B-46C3-A071-6EA23C595ED3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{72F769CD-33A4-4E11-AE96-2D93E146A6FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15180" windowHeight="5730" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13940" windowHeight="1730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="3RD PARTY PROVIDER" sheetId="2" r:id="rId2"/>
+    <sheet name="Manage ACL Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K18"/>
+  <oleSize ref="A1:N18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Username</t>
   </si>
@@ -84,12 +85,6 @@
     <t>Justice Mahomed St &amp; Steve Biko streets, Sunnyside, Pretoria, 0001, South Africa</t>
   </si>
   <si>
-    <t>xyz@gmail.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>Pretoria</t>
   </si>
   <si>
@@ -103,6 +98,36 @@
   </si>
   <si>
     <t>959 Arcadia Street Hatfield, Pretoria, 0001, South Africa</t>
+  </si>
+  <si>
+    <t>Filter Data</t>
+  </si>
+  <si>
+    <t>Amchi pvt lmd</t>
+  </si>
+  <si>
+    <t>sample-008</t>
+  </si>
+  <si>
+    <t>sample.008@gmail.com</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Saran</t>
+  </si>
+  <si>
+    <t>saran@gmail.com</t>
+  </si>
+  <si>
+    <t>Saga</t>
   </si>
 </sst>
 </file>
@@ -156,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,6 +192,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,10 +523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650E07E-7075-45BE-BA25-ACC8F76A0F46}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,9 +540,12 @@
     <col min="7" max="12" width="8.7265625" style="3"/>
     <col min="13" max="13" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.7265625" style="8" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -557,10 +588,15 @@
       <c r="N1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="O1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3">
         <v>9984738816</v>
@@ -568,8 +604,8 @@
       <c r="C2" s="3">
         <v>8972736635</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="E2" s="3">
         <v>7782937352</v>
@@ -584,22 +620,25 @@
         <v>19</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="5">
         <v>1111</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -609,4 +648,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF39FE6-F612-4CC4-BCA6-A06A7C96E1EC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>111111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2">
+        <v>9987635263</v>
+      </c>
+      <c r="F2">
+        <v>111111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F0963025-2590-4EFB-900D-C2F8BCAA89FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{72F769CD-33A4-4E11-AE96-2D93E146A6FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{47A50A91-4802-43BD-9594-0387CF7C9379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13940" windowHeight="1730" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14020" windowHeight="2380" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="3RD PARTY PROVIDER" sheetId="2" r:id="rId2"/>
     <sheet name="Manage ACL Users" sheetId="3" r:id="rId3"/>
+    <sheet name="MANAGE ACL ROLES" sheetId="5" r:id="rId4"/>
+    <sheet name="EMPLOYEES" sheetId="4" r:id="rId5"/>
+    <sheet name="Manager Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N18"/>
+  <oleSize ref="A1:I3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
   <si>
     <t>Password</t>
   </si>
@@ -55,79 +55,379 @@
     <t>Vat Number</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
     <t>Street</t>
   </si>
   <si>
     <t>Street2</t>
   </si>
   <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Justice Mahomed St &amp; Steve Biko streets, Sunnyside, Pretoria, 0001, South Africa</t>
+  </si>
+  <si>
+    <t>This is to create sample provider</t>
+  </si>
+  <si>
+    <t>959 Arcadia Street Hatfield, Pretoria, 0001, South Africa</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Saran</t>
+  </si>
+  <si>
+    <t>saran@gmail.com</t>
+  </si>
+  <si>
+    <t>Saga</t>
+  </si>
+  <si>
+    <t>sample_01 pvt ltd</t>
+  </si>
+  <si>
+    <t>sample_02 pvt ltd</t>
+  </si>
+  <si>
+    <t>sample02pvtltd@gmail.com</t>
+  </si>
+  <si>
+    <t>sample01pvtltd@gmail.com</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Passport Number</t>
+  </si>
+  <si>
+    <t>SA ID</t>
+  </si>
+  <si>
+    <t>Street 1</t>
+  </si>
+  <si>
+    <t>Street 2</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Security Licence Number</t>
+  </si>
+  <si>
+    <t>First Aid/CPR</t>
+  </si>
+  <si>
+    <t>Driver Licence</t>
+  </si>
+  <si>
+    <t>Gun Licence</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>delamanager@gmail.com</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>A97393847</t>
+  </si>
+  <si>
+    <t>S82737837</t>
+  </si>
+  <si>
+    <t>delaemployee@gmail.com</t>
+  </si>
+  <si>
+    <t>delasupervisor@gmail.com</t>
+  </si>
+  <si>
+    <t>Preller St, Muckleneuk, Pretoria, 0002, South Africa</t>
+  </si>
+  <si>
+    <t>Arcadia Street Hatfield, Pretoria, 0001, South Africa</t>
+  </si>
+  <si>
+    <t>Steve Biko streets, Sunnyside, Pretoria, 0001, South Africa</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>10258 Imvubu Street, City of Ekurhuleni Metropolitan Municipality, Gauteng state ,1520, South Africa</t>
+  </si>
+  <si>
+    <t>50 Union Avenue, Sandton ,city of Johannesburg Metropolitan Municipality, Gauteng,1609, South Africa</t>
+  </si>
+  <si>
+    <t>22 Lismore Avenue, Pretoria , City of Tshwane Metropolitan Municipality, Gauteng, 0084, South Africa</t>
+  </si>
+  <si>
+    <t>Halima</t>
+  </si>
+  <si>
+    <t>Lishan</t>
+  </si>
+  <si>
+    <t>Ashauntee</t>
+  </si>
+  <si>
+    <t>balinda@gmail.com</t>
+  </si>
+  <si>
+    <t>malika@gmail.com</t>
+  </si>
+  <si>
+    <t>0084</t>
+  </si>
+  <si>
+    <t>1520</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>Zuhur</t>
+  </si>
+  <si>
+    <t>Iman</t>
+  </si>
+  <si>
+    <t>Ntombazi</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>Uncle</t>
+  </si>
+  <si>
+    <t>Sister</t>
+  </si>
+  <si>
+    <t>23278334S4SD</t>
+  </si>
+  <si>
+    <t>89838273A7HE</t>
+  </si>
+  <si>
+    <t>92132623Y2GV</t>
+  </si>
+  <si>
+    <t>saran01@gmail.com</t>
+  </si>
+  <si>
+    <t>Employee Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Employee Residential Address Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Postal Address Details</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Passport Expiry Date</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Justice Mahomed St &amp; Steve Biko streets, Sunnyside, Pretoria, 0001, South Africa</t>
-  </si>
-  <si>
-    <t>Pretoria</t>
+    <t xml:space="preserve"> Emergency Contact Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Next Of Kin Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security Details</t>
+  </si>
+  <si>
+    <t>Security Licence Expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First Aid Details</t>
+  </si>
+  <si>
+    <t>First Aid/CPR Expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compliance / Training / Certification Details</t>
+  </si>
+  <si>
+    <t>Drivers Licence Expiry date</t>
+  </si>
+  <si>
+    <t>Gun Licence Expiry date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Equipment Details</t>
+  </si>
+  <si>
+    <t>Use Force</t>
+  </si>
+  <si>
+    <t>Traffic Control</t>
+  </si>
+  <si>
+    <t>Use Handcuffs</t>
+  </si>
+  <si>
+    <t>Use Baton</t>
+  </si>
+  <si>
+    <t>Use Gun</t>
+  </si>
+  <si>
+    <t>Contract Details</t>
+  </si>
+  <si>
+    <t>Contract Type</t>
+  </si>
+  <si>
+    <t>Contract Start Date</t>
+  </si>
+  <si>
+    <t>Contract End Date</t>
+  </si>
+  <si>
+    <t>Parent Employee Details</t>
+  </si>
+  <si>
+    <t>3rd Party Provider</t>
+  </si>
+  <si>
+    <t>Parent Contact Name</t>
+  </si>
+  <si>
+    <t>KJ7263SHH236732</t>
+  </si>
+  <si>
+    <t>WS82372383UFE3</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>Permanent</t>
+  </si>
+  <si>
+    <t>Dela Manager</t>
+  </si>
+  <si>
+    <t>Dela Supervisor</t>
+  </si>
+  <si>
+    <t>Kande</t>
+  </si>
+  <si>
+    <t>Marjani</t>
+  </si>
+  <si>
+    <t>Ashia</t>
+  </si>
+  <si>
+    <t>Balinda</t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SampleRole-01</t>
+  </si>
+  <si>
+    <t>Updated Name</t>
+  </si>
+  <si>
+    <t>Provider Role-01</t>
+  </si>
+  <si>
+    <t>Maco</t>
+  </si>
+  <si>
+    <t>Deney</t>
+  </si>
+  <si>
+    <t>maco@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Gauteng</t>
-  </si>
-  <si>
-    <t>This is to create sample provider</t>
-  </si>
-  <si>
-    <t>959 Arcadia Street Hatfield, Pretoria, 0001, South Africa</t>
-  </si>
-  <si>
-    <t>Filter Data</t>
-  </si>
-  <si>
-    <t>Amchi pvt lmd</t>
-  </si>
-  <si>
-    <t>sample-008</t>
-  </si>
-  <si>
-    <t>sample.008@gmail.com</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>Saran</t>
-  </si>
-  <si>
-    <t>saran@gmail.com</t>
-  </si>
-  <si>
-    <t>Saga</t>
+    <t>W82927388</t>
+  </si>
+  <si>
+    <t>Admin Email Address</t>
+  </si>
+  <si>
+    <t>Admin Password</t>
+  </si>
+  <si>
+    <t>Manager Pin</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>sativa</t>
+  </si>
+  <si>
+    <t>Dela Employee</t>
   </si>
 </sst>
 </file>
@@ -137,7 +437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +459,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -177,11 +498,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,13 +516,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -476,37 +846,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
+      <c r="C2">
+        <v>52351</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>999999</v>
@@ -523,80 +900,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650E07E-7075-45BE-BA25-ACC8F76A0F46}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="8.7265625" style="3"/>
-    <col min="13" max="13" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7265625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3">
         <v>9984738816</v>
@@ -604,8 +968,8 @@
       <c r="C2" s="3">
         <v>8972736635</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E2" s="3">
         <v>7782937352</v>
@@ -613,40 +977,59 @@
       <c r="F2" s="3">
         <v>9973263547</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3">
+        <v>8873635363</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7723627463</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5">
-        <v>1111</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
+      <c r="E3" s="3">
+        <v>9036384763</v>
+      </c>
+      <c r="F3" s="3">
+        <v>8393728373</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{A829F1DA-5966-4FF1-BD94-CE57DEA3D97E}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{90300AFE-8AFC-4525-AF3D-C7BC96C07468}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{7F103C7A-8079-4063-B7E2-3B870BDED007}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -654,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF39FE6-F612-4CC4-BCA6-A06A7C96E1EC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,36 +1053,36 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C2">
         <v>111111</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>9987635263</v>
@@ -715,4 +1098,920 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34937C2B-F4B8-42D7-A321-6BA26DEA3957}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2">
+        <v>9837326373</v>
+      </c>
+      <c r="G2">
+        <v>111111</v>
+      </c>
+      <c r="H2">
+        <v>111111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{29C31978-AA66-4A78-8148-2E7D272A8794}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7A074-1D9E-440F-B084-2506C5E06071}">
+  <dimension ref="A1:BC11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.6328125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="15.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.36328125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.90625" style="10" customWidth="1"/>
+    <col min="15" max="16" width="10.1796875" style="10" customWidth="1"/>
+    <col min="17" max="17" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="13" customWidth="1"/>
+    <col min="19" max="20" width="7.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1796875" style="10" customWidth="1"/>
+    <col min="22" max="22" width="10.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" style="13" customWidth="1"/>
+    <col min="24" max="24" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="7.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.1796875" style="10" customWidth="1"/>
+    <col min="32" max="32" width="10.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.54296875" style="10" customWidth="1"/>
+    <col min="34" max="34" width="9.7265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="10" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.36328125" style="10" customWidth="1"/>
+    <col min="40" max="40" width="11.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.26953125" style="10" customWidth="1"/>
+    <col min="42" max="42" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.54296875" style="10" customWidth="1"/>
+    <col min="44" max="44" width="13.90625" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.81640625" customWidth="1"/>
+    <col min="46" max="46" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="16" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC1" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="18">
+        <v>7283627382</v>
+      </c>
+      <c r="D3" s="18">
+        <v>8826373625</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="21">
+        <v>35811</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="21">
+        <v>47243</v>
+      </c>
+      <c r="M3" s="12">
+        <v>8272843728927</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>8837284736</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>9928368726</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG3" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>9873546283</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>98728273261</v>
+      </c>
+      <c r="AM3" s="21">
+        <v>50572</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>8827363376</v>
+      </c>
+      <c r="AO3" s="21">
+        <v>51563</v>
+      </c>
+      <c r="AP3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="22">
+        <v>48261</v>
+      </c>
+      <c r="AR3" s="13">
+        <v>9283271627362</v>
+      </c>
+      <c r="AS3" s="23">
+        <v>47599</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ3" s="23">
+        <v>44610</v>
+      </c>
+      <c r="BA3" s="23">
+        <v>46749</v>
+      </c>
+      <c r="BB3" s="20"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="18">
+        <v>8821937827</v>
+      </c>
+      <c r="D4" s="18">
+        <v>6382638273</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="21">
+        <v>36634</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="21">
+        <v>47243</v>
+      </c>
+      <c r="M4" s="12">
+        <v>9287372838282</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>7228374625</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>6302837462</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>8973648477</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM4" s="21">
+        <v>50572</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>8827372622</v>
+      </c>
+      <c r="AO4" s="21">
+        <v>51563</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" s="22">
+        <v>48261</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>6523732782737</v>
+      </c>
+      <c r="AS4" s="23">
+        <v>47599</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ4" s="23">
+        <v>43395</v>
+      </c>
+      <c r="BB4" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="18">
+        <v>7783638372</v>
+      </c>
+      <c r="D5" s="18">
+        <v>9028372882</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="21">
+        <v>37458</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="21">
+        <v>47243</v>
+      </c>
+      <c r="M5" s="12">
+        <v>9474373837384</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" s="16"/>
+      <c r="V5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>8972537452</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>7726837263</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG5" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>8832273472</v>
+      </c>
+      <c r="AK5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM5" s="21">
+        <v>50572</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>9928347262</v>
+      </c>
+      <c r="AO5" s="21">
+        <v>51563</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ5" s="22">
+        <v>48261</v>
+      </c>
+      <c r="AR5" s="13">
+        <v>8373273276272</v>
+      </c>
+      <c r="AS5" s="23">
+        <v>47599</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ5" s="23">
+        <v>44519</v>
+      </c>
+      <c r="BB5" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+      <c r="E11" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="AT1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="X1:AG1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AL1:AM1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{DD1EADF5-5190-497F-9811-B98876146B01}"/>
+    <hyperlink ref="E4:E5" r:id="rId2" display="delamanager@gmail.com" xr:uid="{FB3A7B3C-CF67-4D5E-A64F-5266F6439838}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{CCC3DB1C-E930-4E8F-AE19-9DC2C8D41F18}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{DB4D6BF5-749F-4E4B-BE5A-D08BB369FCCD}"/>
+    <hyperlink ref="AB3" r:id="rId5" xr:uid="{FFC20A64-BE3C-4AAA-A288-A304A8A874C8}"/>
+    <hyperlink ref="AB4" r:id="rId6" xr:uid="{F02132AE-607B-4CE2-96EB-AC78B7489D2F}"/>
+    <hyperlink ref="AB5" r:id="rId7" xr:uid="{3E80DA71-675F-4DBA-B0FF-1103685EA8F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063364A-DD0E-424D-8007-D44AE9991888}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B073FD93-D195-4F4C-A2E5-7C1B05574B56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15410" windowHeight="1570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13850" windowHeight="6080" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
+    <sheet name="SupervisorLogin" sheetId="7" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="SitesAndCheckpoints" sheetId="5" r:id="rId5"/>
+    <sheet name="Registration" sheetId="6" r:id="rId6"/>
+    <sheet name="ClientModule" sheetId="3" r:id="rId7"/>
+    <sheet name="EquipmentModule" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:F2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -33,13 +39,235 @@
   </si>
   <si>
     <t>sam123@gmail.com</t>
+  </si>
+  <si>
+    <t>CurrentPassword</t>
+  </si>
+  <si>
+    <t>NewPassword</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>ClientName</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>EmailAdress</t>
+  </si>
+  <si>
+    <t>FaxNumber</t>
+  </si>
+  <si>
+    <t>VatNumber</t>
+  </si>
+  <si>
+    <t>AccountManager</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>lonvala</t>
+  </si>
+  <si>
+    <t>Street1</t>
+  </si>
+  <si>
+    <t>23 builders street south africa</t>
+  </si>
+  <si>
+    <t>amsterdam</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Astala vista</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>ydty</t>
+  </si>
+  <si>
+    <t>Vereeniging</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Equipment Description</t>
+  </si>
+  <si>
+    <t>Equipment Name</t>
+  </si>
+  <si>
+    <t>Equipment Category</t>
+  </si>
+  <si>
+    <t>Electronic Device</t>
+  </si>
+  <si>
+    <t>EquipmentLicenseNumber</t>
+  </si>
+  <si>
+    <t>EquipmentSerialNumber</t>
+  </si>
+  <si>
+    <t>SiteName</t>
+  </si>
+  <si>
+    <t>SiteDescription</t>
+  </si>
+  <si>
+    <t>CompleteAdress</t>
+  </si>
+  <si>
+    <t>Postalcode</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email Adress</t>
+  </si>
+  <si>
+    <t>Site Manager</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Contact's First Name</t>
+  </si>
+  <si>
+    <t>Contact's Last Name</t>
+  </si>
+  <si>
+    <t>Meftal 250</t>
+  </si>
+  <si>
+    <t>KUKKI-123</t>
+  </si>
+  <si>
+    <t>KUKKA-123</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Jolly</t>
+  </si>
+  <si>
+    <t>Gate8766</t>
+  </si>
+  <si>
+    <t>23 Builders Way, Hillcrest, South Africa</t>
+  </si>
+  <si>
+    <t>krima</t>
+  </si>
+  <si>
+    <t>roses</t>
+  </si>
+  <si>
+    <t>pamu</t>
+  </si>
+  <si>
+    <t>pava</t>
+  </si>
+  <si>
+    <t>kendy</t>
+  </si>
+  <si>
+    <t>gate 181</t>
+  </si>
+  <si>
+    <t>Charlyputh@gmail.com</t>
+  </si>
+  <si>
+    <t>Charlyputh</t>
+  </si>
+  <si>
+    <t>ThirstyCrow</t>
+  </si>
+  <si>
+    <t>ThistyCrow@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid pin</t>
+  </si>
+  <si>
+    <t>InvalidPin</t>
+  </si>
+  <si>
+    <t>6576cee02c97546ad1fa1176</t>
+  </si>
+  <si>
+    <t>ValidEmployeeId</t>
+  </si>
+  <si>
+    <t>F1435</t>
+  </si>
+  <si>
+    <t>om@gmail.com</t>
+  </si>
+  <si>
+    <t>junglebook@gmail.com</t>
+  </si>
+  <si>
+    <t>jungleman@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +282,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,9 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -360,20 +603,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -389,7 +633,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -397,11 +641,568 @@
         <v>999999</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>123456</v>
+      </c>
+      <c r="B6">
+        <v>1234567</v>
+      </c>
+      <c r="C6">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9876543210</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{6CCADC70-2E05-4615-A806-2C9550743821}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{25F2D3D5-1B63-48F0-9782-536CAEE60C01}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>12344</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>123456</v>
+      </c>
+      <c r="B2">
+        <v>12345607</v>
+      </c>
+      <c r="C2">
+        <v>12345607</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="33.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.36328125" customWidth="1"/>
+    <col min="11" max="11" width="21.7265625" customWidth="1"/>
+    <col min="12" max="12" width="26.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2">
+        <v>4563</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>124365789</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="L2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <v>9876543001</v>
+      </c>
+      <c r="E2">
+        <v>1235678</v>
+      </c>
+      <c r="F2">
+        <v>1235678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="lisa@gmail.com"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="5" max="6" width="10.81640625" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" customWidth="1"/>
+    <col min="8" max="8" width="26.08984375" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" customWidth="1"/>
+    <col min="12" max="12" width="14.08984375" customWidth="1"/>
+    <col min="13" max="13" width="18.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2">
+        <v>54310</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>12333</v>
+      </c>
+      <c r="E2">
+        <v>233</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1234</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>9865432101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>1114507890</v>
+      </c>
+      <c r="E3">
+        <v>1114507890</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>8753098</v>
+      </c>
+      <c r="D2">
+        <v>87658754</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>988986664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3">
+        <v>64899</v>
+      </c>
+      <c r="D3">
+        <v>976521</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="6080" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="6080" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H19"/>
+  <oleSize ref="A1:G19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Username</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Confirm Password</t>
   </si>
   <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>Jolly</t>
-  </si>
-  <si>
     <t>Gate8766</t>
   </si>
   <si>
@@ -212,12 +206,6 @@
     <t>pava</t>
   </si>
   <si>
-    <t>kendy</t>
-  </si>
-  <si>
-    <t>gate 181</t>
-  </si>
-  <si>
     <t>Valid pin</t>
   </si>
   <si>
@@ -230,37 +218,52 @@
     <t>ValidEmployeeId</t>
   </si>
   <si>
-    <t>F1435</t>
-  </si>
-  <si>
-    <t>om@gmail.com</t>
-  </si>
-  <si>
-    <t>junglebook@gmail.com</t>
-  </si>
-  <si>
-    <t>jungleman@gmail.com</t>
-  </si>
-  <si>
-    <t>KUKKA-01</t>
-  </si>
-  <si>
-    <t>KUKKI-182</t>
-  </si>
-  <si>
-    <t>cocacola23</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Hitler</t>
-  </si>
-  <si>
-    <t>Rashya@gmail.com</t>
-  </si>
-  <si>
-    <t>jarmani@gmail.com</t>
+    <t>C8975</t>
+  </si>
+  <si>
+    <t>KYLI</t>
+  </si>
+  <si>
+    <t>JENNER</t>
+  </si>
+  <si>
+    <t>Kyli@gmail.com</t>
+  </si>
+  <si>
+    <t>Interseller</t>
+  </si>
+  <si>
+    <t>Int123</t>
+  </si>
+  <si>
+    <t>Ler123</t>
+  </si>
+  <si>
+    <t>LukaChuppi</t>
+  </si>
+  <si>
+    <t>Lu</t>
+  </si>
+  <si>
+    <t>543q10</t>
+  </si>
+  <si>
+    <t>Chuppi@gmail.com</t>
+  </si>
+  <si>
+    <t>Lu@gmail.com</t>
+  </si>
+  <si>
+    <t>a324</t>
+  </si>
+  <si>
+    <t>Nano@gmail.com</t>
+  </si>
+  <si>
+    <t>I10@gmail.com</t>
+  </si>
+  <si>
+    <t>Audio</t>
   </si>
 </sst>
 </file>
@@ -694,7 +697,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,24 +709,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>12344</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -789,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,7 +804,7 @@
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="26.08984375" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
@@ -849,13 +852,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>4563</v>
@@ -867,27 +870,27 @@
         <v>124365789</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>58</v>
       </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -915,7 +918,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -942,22 +945,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>9876543001</v>
+        <v>1876543000</v>
       </c>
       <c r="E2">
-        <v>1235678</v>
+        <v>123567</v>
       </c>
       <c r="F2">
-        <v>1235678</v>
+        <v>123567</v>
       </c>
     </row>
   </sheetData>
@@ -974,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,13 +1039,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>54310</v>
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>12333</v>
@@ -1077,13 +1080,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3">
-        <v>9865432101</v>
+        <v>8654321201</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>1114527890</v>
@@ -1135,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,33 +1175,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2">
-        <v>87539898</v>
+        <v>986895190</v>
       </c>
       <c r="D2">
-        <v>87658754</v>
+        <v>2493659</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>988986664</v>
+        <v>98890097664</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>64899</v>
+        <v>877636599</v>
       </c>
       <c r="D3">
-        <v>976521</v>
+        <v>467052001</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14290" windowHeight="6080" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="6080" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G19"/>
+  <oleSize ref="A1:H19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Username</t>
   </si>
@@ -188,6 +188,12 @@
     <t>Confirm Password</t>
   </si>
   <si>
+    <t>Joy</t>
+  </si>
+  <si>
+    <t>Jolly</t>
+  </si>
+  <si>
     <t>Gate8766</t>
   </si>
   <si>
@@ -206,6 +212,12 @@
     <t>pava</t>
   </si>
   <si>
+    <t>kendy</t>
+  </si>
+  <si>
+    <t>gate 181</t>
+  </si>
+  <si>
     <t>Valid pin</t>
   </si>
   <si>
@@ -218,52 +230,37 @@
     <t>ValidEmployeeId</t>
   </si>
   <si>
-    <t>C8975</t>
-  </si>
-  <si>
-    <t>KYLI</t>
-  </si>
-  <si>
-    <t>JENNER</t>
-  </si>
-  <si>
-    <t>Kyli@gmail.com</t>
-  </si>
-  <si>
-    <t>Interseller</t>
-  </si>
-  <si>
-    <t>Int123</t>
-  </si>
-  <si>
-    <t>Ler123</t>
-  </si>
-  <si>
-    <t>LukaChuppi</t>
-  </si>
-  <si>
-    <t>Lu</t>
-  </si>
-  <si>
-    <t>543q10</t>
-  </si>
-  <si>
-    <t>Chuppi@gmail.com</t>
-  </si>
-  <si>
-    <t>Lu@gmail.com</t>
-  </si>
-  <si>
-    <t>a324</t>
-  </si>
-  <si>
-    <t>Nano@gmail.com</t>
-  </si>
-  <si>
-    <t>I10@gmail.com</t>
-  </si>
-  <si>
-    <t>Audio</t>
+    <t>F1435</t>
+  </si>
+  <si>
+    <t>om@gmail.com</t>
+  </si>
+  <si>
+    <t>junglebook@gmail.com</t>
+  </si>
+  <si>
+    <t>jungleman@gmail.com</t>
+  </si>
+  <si>
+    <t>KUKKA-01</t>
+  </si>
+  <si>
+    <t>KUKKI-182</t>
+  </si>
+  <si>
+    <t>cocacola23</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Hitler</t>
+  </si>
+  <si>
+    <t>Rashya@gmail.com</t>
+  </si>
+  <si>
+    <t>jarmani@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -697,7 +694,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -709,24 +706,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>12344</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -792,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,7 +801,7 @@
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="26.08984375" customWidth="1"/>
+    <col min="7" max="7" width="20.1796875" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
@@ -852,13 +849,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>4563</v>
@@ -870,27 +867,27 @@
         <v>124365789</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -918,7 +915,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -945,22 +942,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2">
-        <v>1876543000</v>
+        <v>9876543001</v>
       </c>
       <c r="E2">
-        <v>123567</v>
+        <v>1235678</v>
       </c>
       <c r="F2">
-        <v>123567</v>
+        <v>1235678</v>
       </c>
     </row>
   </sheetData>
@@ -977,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1039,13 +1036,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>54310</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D2">
         <v>12333</v>
@@ -1080,13 +1077,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B3">
-        <v>8654321201</v>
+        <v>9865432101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D3">
         <v>1114527890</v>
@@ -1138,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1175,33 +1172,33 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>986895190</v>
+        <v>87539898</v>
       </c>
       <c r="D2">
-        <v>2493659</v>
+        <v>87658754</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F2">
-        <v>98890097664</v>
+        <v>988986664</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>877636599</v>
+        <v>64899</v>
       </c>
       <c r="D3">
-        <v>467052001</v>
+        <v>976521</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{47A50A91-4802-43BD-9594-0387CF7C9379}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC65F7CC-3540-4B6A-B019-C4672A7F2F1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14020" windowHeight="2380" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14080" windowHeight="5730" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Manager Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I3"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="150">
   <si>
     <t>Password</t>
   </si>
@@ -94,18 +94,6 @@
     <t>Saga</t>
   </si>
   <si>
-    <t>sample_01 pvt ltd</t>
-  </si>
-  <si>
-    <t>sample_02 pvt ltd</t>
-  </si>
-  <si>
-    <t>sample02pvtltd@gmail.com</t>
-  </si>
-  <si>
-    <t>sample01pvtltd@gmail.com</t>
-  </si>
-  <si>
     <t>Job Title</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>Manager</t>
   </si>
   <si>
-    <t>delamanager@gmail.com</t>
-  </si>
-  <si>
     <t>Supervisor</t>
   </si>
   <si>
@@ -154,12 +139,6 @@
     <t>S82737837</t>
   </si>
   <si>
-    <t>delaemployee@gmail.com</t>
-  </si>
-  <si>
-    <t>delasupervisor@gmail.com</t>
-  </si>
-  <si>
     <t>Preller St, Muckleneuk, Pretoria, 0002, South Africa</t>
   </si>
   <si>
@@ -427,7 +406,76 @@
     <t>sativa</t>
   </si>
   <si>
-    <t>Dela Employee</t>
+    <t>Job Card Name</t>
+  </si>
+  <si>
+    <t>Job Card Description</t>
+  </si>
+  <si>
+    <t>Windows fitting in 6th floor</t>
+  </si>
+  <si>
+    <t>delamanagerone@gmail.com</t>
+  </si>
+  <si>
+    <t>delasupervisorone@gmail.com</t>
+  </si>
+  <si>
+    <t>delaemployeeone@gmail.com</t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Glass Fitting</t>
+  </si>
+  <si>
+    <t>Glass fitting for windows</t>
+  </si>
+  <si>
+    <t>Shift Check In Time</t>
+  </si>
+  <si>
+    <t>Shift Check Out Time</t>
+  </si>
+  <si>
+    <t>Shift Check In Seconds</t>
+  </si>
+  <si>
+    <t>Updated Check In Time</t>
+  </si>
+  <si>
+    <t>Updated Check In Seconds</t>
+  </si>
+  <si>
+    <t>Fitting windows</t>
+  </si>
+  <si>
+    <t>sampleprovider01pvtltd@gmail.com</t>
+  </si>
+  <si>
+    <t>sampleprovider_01 pvt ltd</t>
+  </si>
+  <si>
+    <t>sampleprovider_02 pvt ltd</t>
+  </si>
+  <si>
+    <t>sampleprovider02pvtltd@gmail.com</t>
+  </si>
+  <si>
+    <t>Dela Manager One</t>
+  </si>
+  <si>
+    <t>Dela Supervisor One</t>
+  </si>
+  <si>
+    <t>Dela Employee One</t>
+  </si>
+  <si>
+    <t>394E8</t>
   </si>
 </sst>
 </file>
@@ -505,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -558,6 +606,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -849,25 +901,25 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" t="s">
-        <v>130</v>
+        <v>122</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -877,8 +929,8 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2">
-        <v>52351</v>
+      <c r="C2" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -895,6 +947,7 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{25F2D3D5-1B63-48F0-9782-536CAEE60C01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -903,15 +956,15 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.90625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" style="3" customWidth="1"/>
@@ -960,7 +1013,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3">
         <v>9984738816</v>
@@ -969,7 +1022,7 @@
         <v>8972736635</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3">
         <v>7782937352</v>
@@ -984,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -993,7 +1046,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3">
         <v>8873635363</v>
@@ -1002,7 +1055,7 @@
         <v>7723627463</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3">
         <v>9036384763</v>
@@ -1017,7 +1070,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -1076,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2">
         <v>111111</v>
@@ -1105,7 +1158,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,10 +1173,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -1144,27 +1197,27 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F2">
         <v>9837326373</v>
@@ -1176,10 +1229,10 @@
         <v>111111</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1195,13 +1248,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7A074-1D9E-440F-B084-2506C5E06071}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.6328125" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.90625" style="11" customWidth="1"/>
@@ -1254,84 +1307,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24" t="s">
+      <c r="A1" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
+      <c r="AS1" s="26"/>
+      <c r="AT1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="AZ1" s="25"/>
-      <c r="BA1" s="25"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
       <c r="BB1" s="19" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="BC1" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -1351,58 +1404,58 @@
         <v>6</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="P2" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>16</v>
@@ -1420,19 +1473,19 @@
         <v>6</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>16</v>
@@ -1444,96 +1497,96 @@
         <v>4</v>
       </c>
       <c r="AK2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AS2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT2" t="s">
         <v>83</v>
       </c>
-      <c r="AN2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="AU2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" t="s">
         <v>85</v>
       </c>
-      <c r="AP2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ2" t="s">
+      <c r="AW2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AX2" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AS2" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AY2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>90</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BA2" t="s">
         <v>91</v>
       </c>
-      <c r="AV2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="BB2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BC2" t="s">
         <v>93</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18">
-        <v>7283627382</v>
+        <v>6302652405</v>
       </c>
       <c r="D3" s="18">
         <v>8826373625</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
+      <c r="E3" s="24" t="s">
+        <v>129</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H3" s="21">
         <v>35811</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L3" s="21">
         <v>47243</v>
@@ -1542,34 +1595,34 @@
         <v>8272843728927</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="Z3" s="10">
         <v>8837284736</v>
@@ -1578,28 +1631,28 @@
         <v>9928368726</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="AG3" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="AI3" s="10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AJ3" s="10">
         <v>9873546283</v>
       </c>
       <c r="AK3" s="10" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AL3" s="10">
         <v>98728273261</v>
@@ -1614,7 +1667,7 @@
         <v>51563</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="AQ3" s="22">
         <v>48261</v>
@@ -1626,22 +1679,22 @@
         <v>47599</v>
       </c>
       <c r="AT3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AU3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AV3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AW3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AY3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AZ3" s="23">
         <v>44610</v>
@@ -1653,37 +1706,37 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18">
-        <v>8821937827</v>
+        <v>6302652405</v>
       </c>
       <c r="D4" s="18">
         <v>6382638273</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>43</v>
+      <c r="E4" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H4" s="21">
         <v>36634</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="L4" s="21">
         <v>47243</v>
@@ -1695,31 +1748,31 @@
         <v>13</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="V4" s="14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Z4" s="10">
         <v>7228374625</v>
@@ -1731,28 +1784,28 @@
         <v>20</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AG4" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AH4" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AJ4" s="10">
         <v>8973648477</v>
       </c>
       <c r="AK4" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AL4" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AM4" s="21">
         <v>50572</v>
@@ -1764,7 +1817,7 @@
         <v>51563</v>
       </c>
       <c r="AP4" s="10" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AQ4" s="22">
         <v>48261</v>
@@ -1776,63 +1829,63 @@
         <v>47599</v>
       </c>
       <c r="AT4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AU4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AV4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AW4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AY4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AZ4" s="23">
         <v>43395</v>
       </c>
       <c r="BB4" s="20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="18">
-        <v>7783638372</v>
+        <v>6302652405</v>
       </c>
       <c r="D5" s="18">
         <v>9028372882</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>42</v>
+      <c r="E5" s="24" t="s">
+        <v>131</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H5" s="21">
         <v>37458</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L5" s="21">
         <v>47243</v>
@@ -1844,33 +1897,33 @@
         <v>15</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y5" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>54</v>
       </c>
       <c r="Z5" s="10">
         <v>8972537452</v>
@@ -1879,31 +1932,31 @@
         <v>7726837263</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AG5" s="17" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AJ5" s="10">
         <v>8832273472</v>
       </c>
       <c r="AK5" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="AL5" s="10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AM5" s="21">
         <v>50572</v>
@@ -1915,7 +1968,7 @@
         <v>51563</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="AQ5" s="22">
         <v>48261</v>
@@ -1927,28 +1980,28 @@
         <v>47599</v>
       </c>
       <c r="AT5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AU5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AV5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AW5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="AX5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AY5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AZ5" s="23">
         <v>44519</v>
       </c>
       <c r="BB5" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
@@ -1993,22 +2046,93 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063364A-DD0E-424D-8007-D44AE9991888}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BC65F7CC-3540-4B6A-B019-C4672A7F2F1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16EFA071-A48C-462D-87AE-659743F8629F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14080" windowHeight="5730" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5730" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Manager Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
+  <oleSize ref="A4:H21"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="148">
   <si>
     <t>Password</t>
   </si>
@@ -91,9 +91,6 @@
     <t>saran@gmail.com</t>
   </si>
   <si>
-    <t>Saga</t>
-  </si>
-  <si>
     <t>Job Title</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>92132623Y2GV</t>
   </si>
   <si>
-    <t>saran01@gmail.com</t>
-  </si>
-  <si>
     <t>Employee Details</t>
   </si>
   <si>
@@ -364,15 +358,6 @@
     <t>Provider Role-01</t>
   </si>
   <si>
-    <t>Maco</t>
-  </si>
-  <si>
-    <t>Deney</t>
-  </si>
-  <si>
-    <t>maco@gmail.com</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -454,28 +439,37 @@
     <t>Fitting windows</t>
   </si>
   <si>
+    <t>Dela Manager One</t>
+  </si>
+  <si>
+    <t>Dela Supervisor One</t>
+  </si>
+  <si>
+    <t>Dela Employee One</t>
+  </si>
+  <si>
+    <t>394E8</t>
+  </si>
+  <si>
+    <t>sampleprovider01 pvt ltd</t>
+  </si>
+  <si>
+    <t>sampleprovider02 pvt ltd</t>
+  </si>
+  <si>
     <t>sampleprovider01pvtltd@gmail.com</t>
   </si>
   <si>
-    <t>sampleprovider_01 pvt ltd</t>
-  </si>
-  <si>
-    <t>sampleprovider_02 pvt ltd</t>
-  </si>
-  <si>
     <t>sampleprovider02pvtltd@gmail.com</t>
   </si>
   <si>
-    <t>Dela Manager One</t>
-  </si>
-  <si>
-    <t>Dela Supervisor One</t>
-  </si>
-  <si>
-    <t>Dela Employee One</t>
-  </si>
-  <si>
-    <t>394E8</t>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Maran</t>
+  </si>
+  <si>
+    <t>jue07@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -913,13 +907,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -930,7 +924,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -956,7 +950,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1013,7 +1007,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3">
         <v>9984738816</v>
@@ -1022,7 +1016,7 @@
         <v>8972736635</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E2" s="3">
         <v>7782937352</v>
@@ -1037,7 +1031,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -1046,7 +1040,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3">
         <v>8873635363</v>
@@ -1055,7 +1049,7 @@
         <v>7723627463</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="3">
         <v>9036384763</v>
@@ -1070,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -1091,7 +1085,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1126,16 +1120,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>111111</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="E2">
         <v>9987635263</v>
@@ -1158,7 +1152,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1168,79 +1162,29 @@
     <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" customWidth="1"/>
     <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2">
-        <v>9837326373</v>
-      </c>
-      <c r="G2">
-        <v>111111</v>
-      </c>
-      <c r="H2">
-        <v>111111</v>
-      </c>
-      <c r="I2" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{29C31978-AA66-4A78-8148-2E7D272A8794}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1248,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7A074-1D9E-440F-B084-2506C5E06071}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1308,7 +1252,7 @@
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1323,21 +1267,21 @@
       <c r="L1" s="26"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
       <c r="S1" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
       <c r="V1" s="26"/>
       <c r="W1" s="26"/>
       <c r="X1" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="26"/>
       <c r="Z1" s="26"/>
@@ -1349,42 +1293,42 @@
       <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
       <c r="AH1" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AI1" s="26"/>
       <c r="AJ1" s="26"/>
       <c r="AK1" s="26"/>
       <c r="AL1" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AM1" s="26"/>
       <c r="AN1" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AO1" s="26"/>
       <c r="AP1" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AQ1" s="26"/>
       <c r="AR1" s="26"/>
       <c r="AS1" s="26"/>
       <c r="AT1" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AU1" s="27"/>
       <c r="AV1" s="27"/>
       <c r="AW1" s="27"/>
       <c r="AX1" s="27"/>
       <c r="AY1" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AZ1" s="27"/>
       <c r="BA1" s="27"/>
       <c r="BB1" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BC1" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.35">
@@ -1404,58 +1348,58 @@
         <v>6</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="L2" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="M2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="Q2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="U2" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="W2" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X2" s="10" t="s">
         <v>16</v>
@@ -1473,19 +1417,19 @@
         <v>6</v>
       </c>
       <c r="AC2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="AE2" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF2" s="10" t="s">
         <v>11</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AH2" s="10" t="s">
         <v>16</v>
@@ -1497,69 +1441,69 @@
         <v>4</v>
       </c>
       <c r="AK2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AL2" s="10" t="s">
+      <c r="AM2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" s="10" t="s">
+      <c r="AP2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>78</v>
       </c>
-      <c r="AP2" s="10" t="s">
+      <c r="AR2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AR2" s="13" t="s">
-        <v>31</v>
-      </c>
       <c r="AS2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT2" t="s">
         <v>81</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV2" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>84</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>85</v>
       </c>
-      <c r="AW2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>87</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA2" t="s">
         <v>89</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BC2" t="s">
         <v>91</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18">
         <v>6302652405</v>
@@ -1568,25 +1512,25 @@
         <v>8826373625</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H3" s="21">
         <v>35811</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="21">
         <v>47243</v>
@@ -1595,34 +1539,34 @@
         <v>8272843728927</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="V3" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z3" s="10">
         <v>8837284736</v>
@@ -1631,28 +1575,28 @@
         <v>9928368726</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF3" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG3" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AH3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AI3" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AJ3" s="10">
         <v>9873546283</v>
       </c>
       <c r="AK3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AL3" s="10">
         <v>98728273261</v>
@@ -1667,7 +1611,7 @@
         <v>51563</v>
       </c>
       <c r="AP3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AQ3" s="22">
         <v>48261</v>
@@ -1679,22 +1623,22 @@
         <v>47599</v>
       </c>
       <c r="AT3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY3" t="s">
         <v>97</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>99</v>
       </c>
       <c r="AZ3" s="23">
         <v>44610</v>
@@ -1706,10 +1650,10 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="18">
         <v>6302652405</v>
@@ -1718,25 +1662,25 @@
         <v>6382638273</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H4" s="21">
         <v>36634</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L4" s="21">
         <v>47243</v>
@@ -1748,31 +1692,31 @@
         <v>13</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="17" t="s">
-        <v>40</v>
-      </c>
       <c r="R4" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="T4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="14" t="s">
-        <v>40</v>
-      </c>
       <c r="W4" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" s="10">
         <v>7228374625</v>
@@ -1784,28 +1728,28 @@
         <v>20</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AF4" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG4" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AH4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AJ4" s="10">
         <v>8973648477</v>
       </c>
       <c r="AK4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AL4" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AM4" s="21">
         <v>50572</v>
@@ -1817,7 +1761,7 @@
         <v>51563</v>
       </c>
       <c r="AP4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AQ4" s="22">
         <v>48261</v>
@@ -1829,36 +1773,36 @@
         <v>47599</v>
       </c>
       <c r="AT4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AU4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY4" t="s">
         <v>98</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>100</v>
       </c>
       <c r="AZ4" s="23">
         <v>43395</v>
       </c>
       <c r="BB4" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18">
         <v>6302652405</v>
@@ -1867,25 +1811,25 @@
         <v>9028372882</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H5" s="21">
         <v>37458</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L5" s="21">
         <v>47243</v>
@@ -1897,33 +1841,33 @@
         <v>15</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="16"/>
       <c r="Q5" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="S5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z5" s="10">
         <v>8972537452</v>
@@ -1932,31 +1876,31 @@
         <v>7726837263</v>
       </c>
       <c r="AB5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF5" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="AG5" s="17" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ5" s="10">
         <v>8832273472</v>
       </c>
       <c r="AK5" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AL5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AM5" s="21">
         <v>50572</v>
@@ -1968,7 +1912,7 @@
         <v>51563</v>
       </c>
       <c r="AP5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AQ5" s="22">
         <v>48261</v>
@@ -1980,28 +1924,28 @@
         <v>47599</v>
       </c>
       <c r="AT5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY5" t="s">
         <v>98</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>100</v>
       </c>
       <c r="AZ5" s="23">
         <v>44519</v>
       </c>
       <c r="BB5" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.35">
@@ -2048,7 +1992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063364A-DD0E-424D-8007-D44AE9991888}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2067,54 +2011,54 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F2">
         <v>11</v>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="6080" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13610" windowHeight="5860" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H19"/>
+  <oleSize ref="A1:E18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>Username</t>
   </si>
@@ -71,15 +71,9 @@
     <t>AccountManager</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
     <t>Street</t>
   </si>
   <si>
-    <t>lonvala</t>
-  </si>
-  <si>
     <t>Street1</t>
   </si>
   <si>
@@ -125,148 +119,163 @@
     <t>Vereeniging</t>
   </si>
   <si>
+    <t>Equipment Description</t>
+  </si>
+  <si>
+    <t>Equipment Name</t>
+  </si>
+  <si>
+    <t>Equipment Category</t>
+  </si>
+  <si>
+    <t>Electronic Device</t>
+  </si>
+  <si>
+    <t>EquipmentLicenseNumber</t>
+  </si>
+  <si>
+    <t>EquipmentSerialNumber</t>
+  </si>
+  <si>
+    <t>SiteName</t>
+  </si>
+  <si>
+    <t>SiteDescription</t>
+  </si>
+  <si>
+    <t>CompleteAdress</t>
+  </si>
+  <si>
+    <t>Postalcode</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Email Adress</t>
+  </si>
+  <si>
+    <t>Site Manager</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>Contact's First Name</t>
+  </si>
+  <si>
+    <t>Contact's Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password </t>
+  </si>
+  <si>
+    <t>Confirm Password</t>
+  </si>
+  <si>
+    <t>Gate8766</t>
+  </si>
+  <si>
+    <t>23 Builders Way, Hillcrest, South Africa</t>
+  </si>
+  <si>
+    <t>Valid pin</t>
+  </si>
+  <si>
+    <t>InvalidPin</t>
+  </si>
+  <si>
+    <t>6576cee02c97546ad1fa1176</t>
+  </si>
+  <si>
+    <t>ValidEmployeeId</t>
+  </si>
+  <si>
+    <t>paji</t>
+  </si>
+  <si>
+    <t>pavali</t>
+  </si>
+  <si>
+    <t>Bella</t>
+  </si>
+  <si>
+    <t>gate31</t>
+  </si>
+  <si>
+    <t>bela@gmail.com</t>
+  </si>
+  <si>
+    <t>krimasi</t>
+  </si>
+  <si>
+    <t>roses</t>
+  </si>
+  <si>
+    <t>julemi@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>omegafatty@gmail.com</t>
+  </si>
+  <si>
+    <t>7ECAF</t>
+  </si>
+  <si>
+    <t>Sisilia</t>
+  </si>
+  <si>
+    <t>Hisia</t>
+  </si>
+  <si>
+    <t>Sisilia@gmail.com</t>
+  </si>
+  <si>
+    <t>Hisia@gmail.com</t>
+  </si>
+  <si>
+    <t>aankia</t>
+  </si>
+  <si>
     <t>Lisa</t>
   </si>
   <si>
-    <t>Equipment Description</t>
-  </si>
-  <si>
-    <t>Equipment Name</t>
-  </si>
-  <si>
-    <t>Equipment Category</t>
-  </si>
-  <si>
-    <t>Electronic Device</t>
-  </si>
-  <si>
-    <t>EquipmentLicenseNumber</t>
-  </si>
-  <si>
-    <t>EquipmentSerialNumber</t>
-  </si>
-  <si>
-    <t>SiteName</t>
-  </si>
-  <si>
-    <t>SiteDescription</t>
-  </si>
-  <si>
-    <t>CompleteAdress</t>
-  </si>
-  <si>
-    <t>Postalcode</t>
-  </si>
-  <si>
-    <t>Mobile Number</t>
-  </si>
-  <si>
-    <t>Email Adress</t>
-  </si>
-  <si>
-    <t>Site Manager</t>
-  </si>
-  <si>
-    <t>Client Name</t>
-  </si>
-  <si>
-    <t>Contact's First Name</t>
-  </si>
-  <si>
-    <t>Contact's Last Name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password </t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
-    <t>Joy</t>
-  </si>
-  <si>
-    <t>Jolly</t>
-  </si>
-  <si>
-    <t>Gate8766</t>
-  </si>
-  <si>
-    <t>23 Builders Way, Hillcrest, South Africa</t>
-  </si>
-  <si>
-    <t>krima</t>
-  </si>
-  <si>
-    <t>roses</t>
-  </si>
-  <si>
-    <t>pamu</t>
-  </si>
-  <si>
-    <t>pava</t>
-  </si>
-  <si>
-    <t>kendy</t>
-  </si>
-  <si>
-    <t>gate 181</t>
-  </si>
-  <si>
-    <t>Valid pin</t>
-  </si>
-  <si>
-    <t>InvalidPin</t>
-  </si>
-  <si>
-    <t>6576cee02c97546ad1fa1176</t>
-  </si>
-  <si>
-    <t>ValidEmployeeId</t>
-  </si>
-  <si>
-    <t>F1435</t>
-  </si>
-  <si>
-    <t>om@gmail.com</t>
-  </si>
-  <si>
-    <t>junglebook@gmail.com</t>
-  </si>
-  <si>
-    <t>jungleman@gmail.com</t>
-  </si>
-  <si>
-    <t>KUKKA-01</t>
-  </si>
-  <si>
-    <t>KUKKI-182</t>
-  </si>
-  <si>
-    <t>cocacola23</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Hitler</t>
-  </si>
-  <si>
-    <t>Rashya@gmail.com</t>
-  </si>
-  <si>
-    <t>jarmani@gmail.com</t>
+    <t>lonval</t>
+  </si>
+  <si>
+    <t>cocacola30</t>
+  </si>
+  <si>
+    <t>Dietcoke20</t>
+  </si>
+  <si>
+    <t>KUKKI-189</t>
+  </si>
+  <si>
+    <t>Diet-19</t>
+  </si>
+  <si>
+    <t>hbfdfhfhjhfyyrhdkdrhff</t>
+  </si>
+  <si>
+    <t>harry-100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -694,7 +703,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,13 +715,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -723,7 +732,7 @@
         <v>12344</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -790,18 +799,18 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.90625" customWidth="1"/>
     <col min="2" max="2" width="22.08984375" customWidth="1"/>
-    <col min="3" max="3" width="33.36328125" customWidth="1"/>
+    <col min="3" max="3" width="38.90625" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
@@ -811,83 +820,83 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>48</v>
-      </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>4563</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>124365789</v>
+        <v>124311009</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -915,49 +924,52 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2">
         <v>9876543001</v>
       </c>
       <c r="E2">
-        <v>1235678</v>
+        <v>123568</v>
       </c>
       <c r="F2">
-        <v>1235678</v>
+        <v>123568</v>
       </c>
     </row>
   </sheetData>
@@ -974,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,115 +1022,115 @@
         <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
       <c r="L1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>50080</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>12133</v>
+      </c>
+      <c r="E2">
+        <v>231</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
         <v>74</v>
       </c>
-      <c r="B2">
-        <v>54310</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2">
-        <v>12333</v>
-      </c>
-      <c r="E2">
-        <v>233</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="L2" s="3">
         <v>1234</v>
       </c>
       <c r="M2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>9865432101</v>
+        <v>9865411101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>1114527890</v>
+        <v>1114521110</v>
       </c>
       <c r="E3">
-        <v>1114507890</v>
+        <v>1114501090</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="L3" s="3">
         <v>1234</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1133,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,53 +1164,76 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>87539898</v>
+        <v>145388098</v>
       </c>
       <c r="D2">
-        <v>87658754</v>
+        <v>1568098754</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>988986664</v>
+        <v>5488018664</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C3">
-        <v>64899</v>
+        <v>6400890</v>
       </c>
       <c r="D3">
-        <v>976521</v>
+        <v>9016521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>1620103286</v>
+      </c>
+      <c r="D4">
+        <v>178923678</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>18012343</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{16EFA071-A48C-462D-87AE-659743F8629F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA0B45BF-2DC2-44A4-B21C-AF2F5123E06C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="5730" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Manager Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:H21"/>
+  <oleSize ref="A1:L18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,9 +388,6 @@
     <t>Filter</t>
   </si>
   <si>
-    <t>sativa</t>
-  </si>
-  <si>
     <t>Job Card Name</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Dela Employee One</t>
   </si>
   <si>
-    <t>394E8</t>
-  </si>
-  <si>
     <t>sampleprovider01 pvt ltd</t>
   </si>
   <si>
@@ -469,7 +463,13 @@
     <t>Maran</t>
   </si>
   <si>
-    <t>jue07@gmail.com</t>
+    <t>Zina</t>
+  </si>
+  <si>
+    <t>jue011@gmail.com</t>
+  </si>
+  <si>
+    <t>61DD4</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,7 +924,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -950,7 +950,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B2" s="3">
         <v>9984738816</v>
@@ -1016,7 +1016,7 @@
         <v>8972736635</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E2" s="3">
         <v>7782937352</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="3">
         <v>8873635363</v>
@@ -1049,7 +1049,7 @@
         <v>7723627463</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" s="3">
         <v>9036384763</v>
@@ -1092,7 +1092,7 @@
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
@@ -1120,22 +1120,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="C2">
-        <v>111111</v>
+        <v>99876352163</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2">
         <v>9987635263</v>
       </c>
       <c r="F2">
-        <v>111111</v>
+        <v>99876352163</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34937C2B-F4B8-42D7-A321-6BA26DEA3957}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -1166,7 +1166,7 @@
     <col min="9" max="9" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>106</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7A074-1D9E-440F-B084-2506C5E06071}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="3" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>31</v>
@@ -1512,7 +1512,7 @@
         <v>8826373625</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>31</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>32</v>
@@ -1662,7 +1662,7 @@
         <v>6382638273</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>32</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="5" spans="1:55" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>33</v>
@@ -1811,7 +1811,7 @@
         <v>9028372882</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>33</v>
@@ -1993,7 +1993,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,51 +2014,51 @@
         <v>119</v>
       </c>
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
-        <v>122</v>
-      </c>
       <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
       <c r="F1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" t="s">
         <v>133</v>
       </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>134</v>
-      </c>
-      <c r="K1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" t="s">
         <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
       </c>
       <c r="F2">
         <v>11</v>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13610" windowHeight="5860" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="5860" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="SupervisorLogin" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
-    <sheet name="SitesAndCheckpoints" sheetId="5" r:id="rId5"/>
-    <sheet name="Registration" sheetId="6" r:id="rId6"/>
-    <sheet name="ClientModule" sheetId="3" r:id="rId7"/>
-    <sheet name="EquipmentModule" sheetId="4" r:id="rId8"/>
+    <sheet name="SitesAndCheckpoints" sheetId="5" r:id="rId3"/>
+    <sheet name="Registration" sheetId="6" r:id="rId4"/>
+    <sheet name="ClientModule" sheetId="3" r:id="rId5"/>
+    <sheet name="EquipmentModule" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>Username</t>
   </si>
@@ -197,30 +195,6 @@
     <t>ValidEmployeeId</t>
   </si>
   <si>
-    <t>paji</t>
-  </si>
-  <si>
-    <t>pavali</t>
-  </si>
-  <si>
-    <t>Bella</t>
-  </si>
-  <si>
-    <t>gate31</t>
-  </si>
-  <si>
-    <t>bela@gmail.com</t>
-  </si>
-  <si>
-    <t>krimasi</t>
-  </si>
-  <si>
-    <t>roses</t>
-  </si>
-  <si>
-    <t>julemi@gmail.com</t>
-  </si>
-  <si>
     <t>Jonas</t>
   </si>
   <si>
@@ -233,43 +207,70 @@
     <t>7ECAF</t>
   </si>
   <si>
-    <t>Sisilia</t>
+    <t>aankia</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>lonval</t>
   </si>
   <si>
     <t>Hisia</t>
   </si>
   <si>
-    <t>Sisilia@gmail.com</t>
-  </si>
-  <si>
-    <t>Hisia@gmail.com</t>
-  </si>
-  <si>
-    <t>aankia</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>lonval</t>
-  </si>
-  <si>
-    <t>cocacola30</t>
-  </si>
-  <si>
-    <t>Dietcoke20</t>
-  </si>
-  <si>
-    <t>KUKKI-189</t>
-  </si>
-  <si>
-    <t>Diet-19</t>
-  </si>
-  <si>
-    <t>hbfdfhfhjhfyyrhdkdrhff</t>
-  </si>
-  <si>
-    <t>harry-100</t>
+    <t>krimasial</t>
+  </si>
+  <si>
+    <t>pajia</t>
+  </si>
+  <si>
+    <t>pavaliae</t>
+  </si>
+  <si>
+    <t>Dua</t>
+  </si>
+  <si>
+    <t>Lippa</t>
+  </si>
+  <si>
+    <t>Dua@gmail.com</t>
+  </si>
+  <si>
+    <t>Lippa@gmail.com</t>
+  </si>
+  <si>
+    <t>gate1</t>
+  </si>
+  <si>
+    <t>cocacola33</t>
+  </si>
+  <si>
+    <t>Dietcoke23</t>
+  </si>
+  <si>
+    <t>KUKKI-191</t>
+  </si>
+  <si>
+    <t>harry-103</t>
+  </si>
+  <si>
+    <t>Diet-22</t>
+  </si>
+  <si>
+    <t>hbfdfhfhjhfyyrhdddkdrhff</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>VatikaBesin@gmail.com</t>
+  </si>
+  <si>
+    <t>julimaahgfqessssa@gmail.com</t>
+  </si>
+  <si>
+    <t>VatikaBesi</t>
   </si>
 </sst>
 </file>
@@ -613,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,23 +627,41 @@
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>123456</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>123456</v>
+      </c>
+      <c r="D2">
+        <v>123457</v>
+      </c>
+      <c r="E2">
+        <v>123457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -650,30 +669,10 @@
         <v>999999</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>123456</v>
-      </c>
-      <c r="B6">
-        <v>1234567</v>
-      </c>
-      <c r="C6">
-        <v>1234567</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -681,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -726,7 +725,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>12344</v>
@@ -742,64 +741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.26953125" customWidth="1"/>
-    <col min="2" max="2" width="31.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>123456</v>
-      </c>
-      <c r="B2">
-        <v>12345607</v>
-      </c>
-      <c r="C2">
-        <v>12345607</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,7 +755,7 @@
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
@@ -858,10 +803,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
@@ -873,25 +818,25 @@
         <v>23</v>
       </c>
       <c r="F2">
-        <v>124311009</v>
+        <v>6522910630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -907,6 +852,11 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G10">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L11" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -919,7 +869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -954,13 +904,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>9876543001</v>
@@ -982,12 +932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1048,16 +998,16 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2">
-        <v>50080</v>
+        <v>50110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>12133</v>
+        <v>12003</v>
       </c>
       <c r="E2">
         <v>231</v>
@@ -1066,10 +1016,10 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
@@ -1088,26 +1038,26 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>69</v>
+      <c r="A3" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B3">
-        <v>9865411101</v>
+        <v>9065433101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3">
-        <v>1114521110</v>
+        <v>1114511110</v>
       </c>
       <c r="E3">
-        <v>1114501090</v>
+        <v>1114001190</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -1143,12 +1093,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1159,7 +1109,7 @@
     <col min="4" max="4" width="17.54296875" customWidth="1"/>
     <col min="5" max="5" width="22.7265625" customWidth="1"/>
     <col min="6" max="6" width="23.36328125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1184,56 +1134,56 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>145388098</v>
+        <v>145322118</v>
       </c>
       <c r="D2">
-        <v>1568098754</v>
+        <v>1562391154</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F2">
-        <v>5488018664</v>
+        <v>5411024664</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C3">
-        <v>6400890</v>
+        <v>6421190</v>
       </c>
       <c r="D3">
-        <v>9016521</v>
+        <v>2316521</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
       <c r="C4">
-        <v>1620103286</v>
+        <v>1611122286</v>
       </c>
       <c r="D4">
-        <v>178923678</v>
+        <v>192411678</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F4">
-        <v>18012343</v>
+        <v>181112443</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA0B45BF-2DC2-44A4-B21C-AF2F5123E06C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2DB73B5C-5B88-4F1F-991F-764917564715}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="5730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="1190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Manager Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L18"/>
+  <oleSize ref="A1:L12"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -895,7 +895,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="5860" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="5860" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>Username</t>
   </si>
@@ -225,46 +225,43 @@
     <t>pavaliae</t>
   </si>
   <si>
-    <t>Dua</t>
-  </si>
-  <si>
-    <t>Lippa</t>
-  </si>
-  <si>
-    <t>Dua@gmail.com</t>
-  </si>
-  <si>
-    <t>Lippa@gmail.com</t>
-  </si>
-  <si>
     <t>gate1</t>
   </si>
   <si>
-    <t>cocacola33</t>
-  </si>
-  <si>
-    <t>Dietcoke23</t>
-  </si>
-  <si>
-    <t>KUKKI-191</t>
-  </si>
-  <si>
-    <t>harry-103</t>
-  </si>
-  <si>
-    <t>Diet-22</t>
-  </si>
-  <si>
-    <t>hbfdfhfhjhfyyrhdddkdrhff</t>
-  </si>
-  <si>
-    <t>VatikaBesin@gmail.com</t>
-  </si>
-  <si>
-    <t>julimaahgfqessssa@gmail.com</t>
-  </si>
-  <si>
-    <t>VatikaBesi</t>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Henry@gmail.com</t>
+  </si>
+  <si>
+    <t>ola</t>
+  </si>
+  <si>
+    <t>cocacola36</t>
+  </si>
+  <si>
+    <t>Dietcoke26</t>
+  </si>
+  <si>
+    <t>KUKKI-193</t>
+  </si>
+  <si>
+    <t>harry-105</t>
+  </si>
+  <si>
+    <t>Diet-24</t>
+  </si>
+  <si>
+    <t>hbfdfhfhjhfjhywwwyrhdddkdrhff</t>
+  </si>
+  <si>
+    <t>VatikaBusiness</t>
+  </si>
+  <si>
+    <t>VatikaBusiness@gmail.com</t>
+  </si>
+  <si>
+    <t>VCentre01@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -611,7 +608,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -724,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -741,7 +738,7 @@
     <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
     <col min="11" max="11" width="21.7265625" customWidth="1"/>
-    <col min="12" max="12" width="26.1796875" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -784,10 +781,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -846,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,7 +907,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,7 +968,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>50110</v>
@@ -1018,7 +1015,7 @@
         <v>9065433101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1114511110</v>
@@ -1068,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,10 +1079,11 @@
     <col min="4" max="4" width="17.54296875" customWidth="1"/>
     <col min="5" max="5" width="22.7265625" customWidth="1"/>
     <col min="6" max="6" width="23.36328125" customWidth="1"/>
-    <col min="7" max="7" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="50.81640625" customWidth="1"/>
+    <col min="8" max="8" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1105,29 +1103,29 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>145322118</v>
+        <v>453013318</v>
       </c>
       <c r="D2">
-        <v>1562391154</v>
+        <v>1569901154</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F2">
-        <v>5411024664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5419924664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>6421190</v>
@@ -1136,27 +1134,30 @@
         <v>2316521</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>1611122286</v>
+        <v>1611199286</v>
       </c>
       <c r="D4">
-        <v>192411678</v>
+        <v>191991678</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4">
-        <v>181112443</v>
+        <v>181199443</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13630" windowHeight="5860" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14650" windowHeight="5860" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E18"/>
+  <oleSize ref="A1:F18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Username</t>
   </si>
@@ -186,9 +186,6 @@
     <t>InvalidPin</t>
   </si>
   <si>
-    <t>6576cee02c97546ad1fa1176</t>
-  </si>
-  <si>
     <t>ValidEmployeeId</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>omegafatty@gmail.com</t>
   </si>
   <si>
-    <t>7ECAF</t>
-  </si>
-  <si>
     <t>aankia</t>
   </si>
   <si>
@@ -225,15 +219,6 @@
     <t>pavaliae</t>
   </si>
   <si>
-    <t>gate1</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Henry@gmail.com</t>
-  </si>
-  <si>
     <t>ola</t>
   </si>
   <si>
@@ -255,13 +240,31 @@
     <t>hbfdfhfhjhfjhywwwyrhdddkdrhff</t>
   </si>
   <si>
-    <t>VatikaBusiness</t>
-  </si>
-  <si>
-    <t>VatikaBusiness@gmail.com</t>
-  </si>
-  <si>
-    <t>VCentre01@gmail.com</t>
+    <t>C42B1</t>
+  </si>
+  <si>
+    <t>664f12fb3e969e24f2bce93d</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>Gigi@gmail.com</t>
+  </si>
+  <si>
+    <t>Henry01@gmail.com</t>
+  </si>
+  <si>
+    <t>gate2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesta soft </t>
+  </si>
+  <si>
+    <t>VatikaBusinesscentre03@gmail.com</t>
+  </si>
+  <si>
+    <t>VCentre04@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +683,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,18 +701,18 @@
         <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>12344</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -721,19 +724,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
     <col min="2" max="2" width="22.08984375" customWidth="1"/>
     <col min="3" max="3" width="38.90625" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="5" width="12.453125" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="29.6328125" customWidth="1"/>
+    <col min="7" max="7" width="33.7265625" customWidth="1"/>
     <col min="8" max="8" width="11.90625" customWidth="1"/>
     <col min="9" max="9" width="10.453125" customWidth="1"/>
     <col min="10" max="10" width="18.36328125" customWidth="1"/>
@@ -781,10 +784,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -799,22 +802,22 @@
         <v>6522910630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -874,13 +877,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D2">
         <v>9876543001</v>
@@ -907,7 +910,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,13 +971,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>50110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>12003</v>
@@ -986,10 +989,10 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
         <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
       </c>
       <c r="I2" t="s">
         <v>27</v>
@@ -1009,13 +1012,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>9065433101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>1114511110</v>
@@ -1027,7 +1030,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -1067,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1105,10 +1108,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>453013318</v>
@@ -1125,7 +1128,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>6421190</v>
@@ -1136,10 +1139,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>1611199286</v>
@@ -1154,10 +1157,10 @@
         <v>181199443</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14650" windowHeight="5860" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F18"/>
+  <oleSize ref="A1:H18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -207,9 +207,6 @@
     <t>lonval</t>
   </si>
   <si>
-    <t>Hisia</t>
-  </si>
-  <si>
     <t>krimasial</t>
   </si>
   <si>
@@ -222,56 +219,59 @@
     <t>ola</t>
   </si>
   <si>
-    <t>cocacola36</t>
-  </si>
-  <si>
-    <t>Dietcoke26</t>
-  </si>
-  <si>
-    <t>KUKKI-193</t>
-  </si>
-  <si>
-    <t>harry-105</t>
-  </si>
-  <si>
-    <t>Diet-24</t>
-  </si>
-  <si>
-    <t>hbfdfhfhjhfjhywwwyrhdddkdrhff</t>
-  </si>
-  <si>
-    <t>C42B1</t>
-  </si>
-  <si>
-    <t>664f12fb3e969e24f2bce93d</t>
-  </si>
-  <si>
     <t>Gigi</t>
   </si>
   <si>
-    <t>Gigi@gmail.com</t>
-  </si>
-  <si>
-    <t>Henry01@gmail.com</t>
-  </si>
-  <si>
     <t>gate2</t>
   </si>
   <si>
-    <t xml:space="preserve">Cesta soft </t>
-  </si>
-  <si>
-    <t>VatikaBusinesscentre03@gmail.com</t>
-  </si>
-  <si>
-    <t>VCentre04@gmail.com</t>
+    <t>omega ltd</t>
+  </si>
+  <si>
+    <t>hbfdfhfhjhfjhywwwyrhdddkdrhffee</t>
+  </si>
+  <si>
+    <t>Chiragiaa05</t>
+  </si>
+  <si>
+    <t>Chirag paswan05</t>
+  </si>
+  <si>
+    <t>Cookieaadt</t>
+  </si>
+  <si>
+    <t>harryStyleeaadt</t>
+  </si>
+  <si>
+    <t>DietCokeeaat</t>
+  </si>
+  <si>
+    <t>hbfdfhfhjhfjhywwwyrhdddkdrhffeeeeeeeeeeddeheeeeeaaafg</t>
+  </si>
+  <si>
+    <t>Henry03@gmail.com</t>
+  </si>
+  <si>
+    <t>Gigi04@gmail.com</t>
+  </si>
+  <si>
+    <t>VatikaBusinesscentre09@gmail.com</t>
+  </si>
+  <si>
+    <t>VCentre09@gmail.com</t>
+  </si>
+  <si>
+    <t>ED4D8</t>
+  </si>
+  <si>
+    <t>664f15103e969e24f2bce957</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +300,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,11 +328,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -682,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,17 +713,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>12344</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
+      <c r="C2" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -724,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,10 +792,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -802,22 +810,22 @@
         <v>6522910630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" t="s">
         <v>61</v>
       </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -910,7 +918,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,13 +979,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>50110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>12003</v>
@@ -1012,13 +1020,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B3">
         <v>9065433101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3">
         <v>1114511110</v>
@@ -1071,7 +1079,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,59 +1116,59 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C2">
-        <v>453013318</v>
+        <v>90715109333</v>
       </c>
       <c r="D2">
-        <v>1569901154</v>
+        <v>3238257223</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F2">
-        <v>5419924664</v>
+        <v>76506158133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>6421190</v>
+        <v>6454887390</v>
       </c>
       <c r="D3">
-        <v>2316521</v>
+        <v>23145795221</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>1611199286</v>
+        <v>65225552851</v>
       </c>
       <c r="D4">
-        <v>191991678</v>
+        <v>7860875365</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4">
-        <v>181199443</v>
+        <v>76361108303</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1DDF2DFC-5A78-446F-BD99-8857D5E6138E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AE4E9743-2993-449B-A30E-DC66BDEA3A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13960" windowHeight="5730" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13460" windowHeight="5730" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Manager Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
+  <oleSize ref="A1:J18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,10 +466,10 @@
     <t>Zina</t>
   </si>
   <si>
-    <t>jue011@gmail.com</t>
-  </si>
-  <si>
     <t>61DD4</t>
+  </si>
+  <si>
+    <t>maranmara001@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -895,7 +895,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,7 +924,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF39FE6-F612-4CC4-BCA6-A06A7C96E1EC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1123,7 +1123,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>99876352163</v>
@@ -1192,7 +1192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7A074-1D9E-440F-B084-2506C5E06071}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="AV1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0063364A-DD0E-424D-8007-D44AE9991888}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H18"/>
+  <oleSize ref="E1:K18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,9 +219,6 @@
     <t>ola</t>
   </si>
   <si>
-    <t>Gigi</t>
-  </si>
-  <si>
     <t>gate2</t>
   </si>
   <si>
@@ -249,15 +246,6 @@
     <t>hbfdfhfhjhfjhywwwyrhdddkdrhffeeeeeeeeeeddeheeeeeaaafg</t>
   </si>
   <si>
-    <t>Henry03@gmail.com</t>
-  </si>
-  <si>
-    <t>Gigi04@gmail.com</t>
-  </si>
-  <si>
-    <t>VatikaBusinesscentre09@gmail.com</t>
-  </si>
-  <si>
     <t>VCentre09@gmail.com</t>
   </si>
   <si>
@@ -265,6 +253,18 @@
   </si>
   <si>
     <t>664f15103e969e24f2bce957</t>
+  </si>
+  <si>
+    <t>BlackPthanter</t>
+  </si>
+  <si>
+    <t>Henry11@gmail.com</t>
+  </si>
+  <si>
+    <t>BlackPanther01@gmail.com</t>
+  </si>
+  <si>
+    <t>VatikaBusinesscentre10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -713,13 +713,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>12344</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,10 +792,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -810,13 +810,13 @@
         <v>6522910630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -825,7 +825,7 @@
         <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -918,7 +918,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -985,7 +985,7 @@
         <v>50110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D2">
         <v>12003</v>
@@ -1020,19 +1020,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B3">
-        <v>9065433101</v>
+        <v>9065033101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>1114511110</v>
+        <v>1114511100</v>
       </c>
       <c r="E3">
-        <v>1114001190</v>
+        <v>1114001090</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>90715109333</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>6454887390</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>65225552851</v>
@@ -1165,10 +1165,10 @@
         <v>76361108303</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="E1:K18"/>
+  <oleSize ref="A1:G18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Username</t>
   </si>
@@ -228,24 +228,6 @@
     <t>hbfdfhfhjhfjhywwwyrhdddkdrhffee</t>
   </si>
   <si>
-    <t>Chiragiaa05</t>
-  </si>
-  <si>
-    <t>Chirag paswan05</t>
-  </si>
-  <si>
-    <t>Cookieaadt</t>
-  </si>
-  <si>
-    <t>harryStyleeaadt</t>
-  </si>
-  <si>
-    <t>DietCokeeaat</t>
-  </si>
-  <si>
-    <t>hbfdfhfhjhfjhywwwyrhdddkdrhffeeeeeeeeeeddeheeeeeaaafg</t>
-  </si>
-  <si>
     <t>VCentre09@gmail.com</t>
   </si>
   <si>
@@ -258,13 +240,40 @@
     <t>BlackPthanter</t>
   </si>
   <si>
-    <t>Henry11@gmail.com</t>
-  </si>
-  <si>
-    <t>BlackPanther01@gmail.com</t>
-  </si>
-  <si>
     <t>VatikaBusinesscentre10@gmail.com</t>
+  </si>
+  <si>
+    <t>22s</t>
+  </si>
+  <si>
+    <t>23ww</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>Chiragiaa07</t>
+  </si>
+  <si>
+    <t>Chirag paswan111</t>
+  </si>
+  <si>
+    <t>Cookieaadts</t>
+  </si>
+  <si>
+    <t>harryStyleeaadts</t>
+  </si>
+  <si>
+    <t>DietCokeeaats</t>
+  </si>
+  <si>
+    <t>hbfdfhfhjhfjhywwwyrhdddkdrhffeeeeeeeeeeddeheeeeeaaafgccc</t>
+  </si>
+  <si>
+    <t>Henry12@gmail.com</t>
+  </si>
+  <si>
+    <t>BlackPanther02@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -618,7 +627,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,6 +678,15 @@
       </c>
       <c r="B3">
         <v>999999</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35"/>
@@ -713,13 +731,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>12344</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -810,13 +828,13 @@
         <v>6522910630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -825,7 +843,7 @@
         <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -917,15 +935,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" customWidth="1"/>
     <col min="2" max="2" width="16.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" customWidth="1"/>
     <col min="5" max="6" width="10.81640625" customWidth="1"/>
     <col min="7" max="7" width="14.54296875" customWidth="1"/>
@@ -985,7 +1003,7 @@
         <v>50110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D2">
         <v>12003</v>
@@ -1020,13 +1038,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3">
         <v>9065033101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>1114511100</v>
@@ -1076,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,61 +1134,62 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>90715109333</v>
+        <v>90715101333</v>
       </c>
       <c r="D2">
-        <v>3238257223</v>
+        <v>3238251223</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F2">
-        <v>76506158133</v>
+        <v>76506151133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>6454887390</v>
+        <v>6454887190</v>
       </c>
       <c r="D3">
-        <v>23145795221</v>
+        <v>23145791221</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>65225552851</v>
+        <v>65225552811</v>
       </c>
       <c r="D4">
-        <v>7860875365</v>
+        <v>7860871365</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4">
-        <v>76361108303</v>
+        <v>76361101303</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13030" windowHeight="5860" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13340" windowHeight="6080" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="EquipmentModule" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G18"/>
+  <oleSize ref="A1:E19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -216,33 +216,12 @@
     <t>pavaliae</t>
   </si>
   <si>
-    <t>ola</t>
-  </si>
-  <si>
-    <t>gate2</t>
-  </si>
-  <si>
-    <t>omega ltd</t>
-  </si>
-  <si>
-    <t>hbfdfhfhjhfjhywwwyrhdddkdrhffee</t>
-  </si>
-  <si>
-    <t>VCentre09@gmail.com</t>
-  </si>
-  <si>
     <t>ED4D8</t>
   </si>
   <si>
     <t>664f15103e969e24f2bce957</t>
   </si>
   <si>
-    <t>BlackPthanter</t>
-  </si>
-  <si>
-    <t>VatikaBusinesscentre10@gmail.com</t>
-  </si>
-  <si>
     <t>22s</t>
   </si>
   <si>
@@ -252,34 +231,55 @@
     <t>12s</t>
   </si>
   <si>
-    <t>Chiragiaa07</t>
-  </si>
-  <si>
-    <t>Chirag paswan111</t>
-  </si>
-  <si>
-    <t>Cookieaadts</t>
-  </si>
-  <si>
-    <t>harryStyleeaadts</t>
-  </si>
-  <si>
-    <t>DietCokeeaats</t>
-  </si>
-  <si>
-    <t>hbfdfhfhjhfjhywwwyrhdddkdrhffeeeeeeeeeeddeheeeeeaaafgccc</t>
-  </si>
-  <si>
-    <t>Henry12@gmail.com</t>
-  </si>
-  <si>
-    <t>BlackPanther02@gmail.com</t>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Luka</t>
+  </si>
+  <si>
+    <t>Dragon@gmail.com</t>
+  </si>
+  <si>
+    <t>Luca@gmail.com</t>
+  </si>
+  <si>
+    <t>gate3</t>
+  </si>
+  <si>
+    <t>Lukabussiness01@gmail.com</t>
+  </si>
+  <si>
+    <t>Pagbusiness01@gmail.com</t>
+  </si>
+  <si>
+    <t>alberto</t>
+  </si>
+  <si>
+    <t>rrrggggggggggrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrrr</t>
+  </si>
+  <si>
+    <t>hbfdfhfhjhfjhywddwydddkdrhffee</t>
+  </si>
+  <si>
+    <t>Thor01</t>
+  </si>
+  <si>
+    <t>Loki01</t>
+  </si>
+  <si>
+    <t>Ironman18</t>
+  </si>
+  <si>
+    <t>harryStyleeaadts18</t>
+  </si>
+  <si>
+    <t>Ironman128</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -680,13 +680,13 @@
         <v>999999</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35"/>
@@ -708,7 +708,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -731,13 +731,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>12344</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -810,10 +810,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -825,16 +825,16 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>6522910630</v>
+        <v>6522900630</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
         <v>61</v>
@@ -843,7 +843,7 @@
         <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,19 +997,19 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2">
         <v>50110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D2">
-        <v>12003</v>
+        <v>12103</v>
       </c>
       <c r="E2">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1038,19 +1038,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3">
-        <v>9065033101</v>
+        <v>9065031101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>1114511100</v>
+        <v>1114512000</v>
       </c>
       <c r="E3">
-        <v>1114001090</v>
+        <v>1114002091</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,59 +1134,59 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>90715101333</v>
+        <v>9076356960</v>
       </c>
       <c r="D2">
-        <v>3238251223</v>
+        <v>76279566654</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F2">
-        <v>76506151133</v>
+        <v>76745971333</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3">
-        <v>6454887190</v>
+        <v>8772568990</v>
       </c>
       <c r="D3">
-        <v>23145791221</v>
+        <v>2359660011</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4">
-        <v>65225552811</v>
+        <v>8665679011</v>
       </c>
       <c r="D4">
-        <v>7860871365</v>
+        <v>8845943033</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F4">
-        <v>76361101303</v>
+        <v>76174593403</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35"/>

--- a/TestData/Excel_data/Stratos_Test_Data.xlsx
+++ b/TestData/Excel_data/Stratos_Test_Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AE4E9743-2993-449B-A30E-DC66BDEA3A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7400ACE0-2457-410B-842B-BF0B83CFB2F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13460" windowHeight="5730" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Manager Data" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J18"/>
+  <oleSize ref="A1:J17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -466,10 +466,10 @@
     <t>Zina</t>
   </si>
   <si>
-    <t>61DD4</t>
-  </si>
-  <si>
-    <t>maranmara001@gmail.com</t>
+    <t>maranmara003@gmail.com</t>
+  </si>
+  <si>
+    <t>86547</t>
   </si>
 </sst>
 </file>
@@ -603,13 +603,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -923,8 +923,8 @@
       <c r="B2">
         <v>123456</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>146</v>
+      <c r="C2" s="27" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650E07E-7075-45BE-BA25-ACC8F76A0F46}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1084,14 +1084,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF39FE6-F612-4CC4-BCA6-A06A7C96E1EC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" customWidth="1"/>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -1123,7 +1123,7 @@
         <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>99876352163</v>
@@ -1152,7 +1152,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F7A074-1D9E-440F-B084-2506C5E06071}">
   <dimension ref="A1:BC11"/>
   <sheetViews>
-    <sheetView topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,79 +1251,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26" t="s">
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26" t="s">
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26" t="s">
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26" t="s">
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26" t="s">
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="27" t="s">
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27" t="s">
+      <c r="AU1" s="26"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="26"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
       <c r="BB1" s="19" t="s">
         <v>90</v>
       </c>
